--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12501.16755718045</v>
+        <v>2487732.343878908</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12501.16755718045</v>
+        <v>2487732.343878908</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47603.35215379817</v>
+        <v>3190286.773299832</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47603.35215379817</v>
+        <v>3190286.773299832</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610627231.423128</v>
+        <v>63329658.48986533</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14931.41140377838</v>
+        <v>1512695.347649015</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28752.66896278195</v>
+        <v>2835041.239998239</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42573.92652178549</v>
+        <v>4157387.132347465</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58599.11257193649</v>
+        <v>5320548.370495005</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73901.30467234383</v>
+        <v>6562281.573713052</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89203.49677274931</v>
+        <v>7804014.776931291</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104505.6888731518</v>
+        <v>9045747.980149865</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119807.8809735536</v>
+        <v>10287481.18336853</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134932.6544215819</v>
+        <v>11500529.2077135</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150126.3248393028</v>
+        <v>12727287.72902866</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165319.9952570254</v>
+        <v>13954046.25034361</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180513.6656747489</v>
+        <v>15180804.77165848</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195707.3360924707</v>
+        <v>16407563.29297355</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>211092.0124330643</v>
+        <v>17608333.42118716</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227519.2858132771</v>
+        <v>18671906.89878253</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169.0000000000587</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
